--- a/medicine/Handicap/Conseil_national_consultatif_des_personnes_handicapées/Conseil_national_consultatif_des_personnes_handicapées.xlsx
+++ b/medicine/Handicap/Conseil_national_consultatif_des_personnes_handicapées/Conseil_national_consultatif_des_personnes_handicapées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseil_national_consultatif_des_personnes_handicap%C3%A9es</t>
+          <t>Conseil_national_consultatif_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil national consultatif des personnes handicapées (CNCPH) a été créé par la loi du 30 juin 1975 d’orientation en faveur des personnes handicapées. Il s’agit d’une instance française à caractère consultatif chargée d’assurer la participation des personnes handicapées à l’élaboration et à la mise en œuvre des politiques les concernant. Les dispositions applicables à cette instance sont codifiées aux articles L. 146-1 et D. 146-1 à D. 146-12 du code de l'action sociale et des familles (CASF).
 La composition du CNCPH a évolué dans le temps. À l’origine, il était constitué des principales associations représentatives des personnes handicapées et des parents d’enfants handicapés. Plus tard, sa composition a été élargie aux représentants des organisations syndicales, des collectivités territoriales (régions, départements et communes), de grandes institutions comme la Mutualité Française, la Croix-Rouge, l’UNIOPSS…
 Le CNCPH comprend actuellement 160 membres titulaires avec chacun un suppléant à l’exception des deux parlementaires désignés par leur assemblée respective ainsi que le Président.
-Le président et les vice-présidents sont désignés par la secrétaire d’État auprès du Premier Ministre, chargée des personnes handicapées. Le Président est nommé pour la durée de la mandature et il est renouvelable dans cette fonction. Les mandats au CNCPH ont été renouvelés en dernier lieu le 22 janvier 2020. Le CNCPH est actuellement présidé par Jérémie Boroy[2]. Les membres sont nommés par arrêté du 8 février 2020[3].
+Le président et les vice-présidents sont désignés par la secrétaire d’État auprès du Premier Ministre, chargée des personnes handicapées. Le Président est nommé pour la durée de la mandature et il est renouvelable dans cette fonction. Les mandats au CNCPH ont été renouvelés en dernier lieu le 22 janvier 2020. Le CNCPH est actuellement présidé par Jérémie Boroy. Les membres sont nommés par arrêté du 8 février 2020.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conseil_national_consultatif_des_personnes_handicap%C3%A9es</t>
+          <t>Conseil_national_consultatif_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Champs de compétence et missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Instance consultative placée auprès du Ministre chargé des personnes handicapées, le CNCPH a été créé par la loi du 30 juin 1975 d’orientation en faveur des personnes handicapées et les dispositions applicables à cette instances sont codifiées aux articles L. 146-1 et D. 146-1 à D. 146-9 du code de l’action sociale et des familles (CASF). Il a pour principale mission d’assurer la participation des personnes handicapées à l’élaboration et à la mise en œuvre des politiques publiques qui les concernent. Ainsi, le CNCPH peut être saisi ou s’autosaisir de toutes questions relatives à la politique du handicap.
 La loi du 11 février 2005 « Égalité des droits et des chances, participation et la citoyenneté des personnes handicapées » renforce ses missions et prévoit que le CNCPH soit saisi de tous les projets de textes réglementaires pris en application de cette loi. D’une manière générale, cette loi donne au CNCPH une mission d’évaluation de la situation des personnes handicapées et de propositions d’actions portées à l’attention du Parlement et du Gouvernement.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conseil_national_consultatif_des_personnes_handicap%C3%A9es</t>
+          <t>Conseil_national_consultatif_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A l’origine, le CNCPH était constitué des principales associations représentatives des personnes handicapées et de leur famille. Aujourd’hui, sa composition a évolué pour rassembler la plus grande partie des acteurs de la politique du handicap : associations gestionnaires d’établissements et de services spécialisés, syndicats de salariés et d’employeurs, collectivités territoriales (régions, départements et communes), parlementaires, organismes de protection sociale, structures d’études et de recherches et des personnes « dites » qualifiées, reconnues pour leur expertise dans le domaine du handicap.
 Conformément aux articles D. 146-2 et D. 146-3 du CASF, la nomination du Président, des Vice-présidents ainsi que des membres titulaires et suppléants du CNCPH est fixée par arrêté du ministre chargé des personnes handicapées pour une durée de trois ans. Le Président est renouvelable dans cette fonction.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conseil_national_consultatif_des_personnes_handicap%C3%A9es</t>
+          <t>Conseil_national_consultatif_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le secrétariat du CNCPH est assuré par le Secrétariat général du Comité interministériel du handicap (CIH), avec l’appui des services de la Direction générale de la cohésion sociale (DGCS).
 Les membres titulaires sont répartis en 6 collèges représentant la diversité de la société et en 9 commissions thématiques. Sont nommés à la tête de chaque commission un Vice-président et deux assesseurs.
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conseil_national_consultatif_des_personnes_handicap%C3%A9es</t>
+          <t>Conseil_national_consultatif_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,16 +652,18 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1992-1996 : François Hollande[4]
-1996-1999 : Roselyne Bachelot[5]
-1999-2002 : Francis Hammel[6]
-2002-2009 : Jean-Marie Schléret[7]
-2009-2012 : Patrick Gohet[8]
-2012-2015 : Martine Carrillon-Couvreur[9]
-2015-2018 : Dominique Gillot[10]
-depuis 2020 : Jérémie Boroy[11]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1992-1996 : François Hollande
+1996-1999 : Roselyne Bachelot
+1999-2002 : Francis Hammel
+2002-2009 : Jean-Marie Schléret
+2009-2012 : Patrick Gohet
+2012-2015 : Martine Carrillon-Couvreur
+2015-2018 : Dominique Gillot
+depuis 2020 : Jérémie Boroy</t>
         </is>
       </c>
     </row>
